--- a/arcpy/qaqc/Historic_PurpleAir/PA IDs and indexes.xlsx
+++ b/arcpy/qaqc/Historic_PurpleAir/PA IDs and indexes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bowlinx0\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tande\Documents\GitHub\QualityAirQualityCities\arcpy\qaqc\Historic_PurpleAir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D10EFA5-4AD6-4C02-A773-AF890DFA1718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FF4C3-CCE2-4614-BDB1-CA02CA3414AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31815" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{AFF7FDF3-5C8E-44D7-B59C-1262BA8F9470}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFF7FDF3-5C8E-44D7-B59C-1262BA8F9470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>PA Device -ID</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>Forgot to note this, reached out to get it</t>
+  </si>
+  <si>
+    <t>*inactive</t>
+  </si>
+  <si>
+    <t>City of Minneapolis Community Air Monitoring Project 68</t>
+  </si>
+  <si>
+    <t>*new</t>
   </si>
 </sst>
 </file>
@@ -824,20 +833,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B394A7EB-A1AA-4267-B057-34339BEFEB84}">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -848,7 +857,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -858,8 +867,11 @@
       <c r="C2" s="2">
         <v>145262</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -870,7 +882,7 @@
         <v>145498</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -881,7 +893,7 @@
         <v>145454</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -892,7 +904,7 @@
         <v>157757</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -902,8 +914,11 @@
       <c r="C6" s="2">
         <v>145504</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -913,8 +928,11 @@
       <c r="C7" s="2">
         <v>145502</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -925,7 +943,7 @@
         <v>145242</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -936,7 +954,7 @@
         <v>145470</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -947,7 +965,7 @@
         <v>143214</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -958,7 +976,7 @@
         <v>157877</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -969,7 +987,7 @@
         <v>143224</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -980,7 +998,7 @@
         <v>142726</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>142748</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>142730</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1031,7 @@
         <v>143216</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>143226</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1035,7 +1053,7 @@
         <v>142732</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1064,7 @@
         <v>142736</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1057,7 +1075,7 @@
         <v>143240</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1068,7 +1086,7 @@
         <v>142734</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1097,7 @@
         <v>143246</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1090,7 +1108,7 @@
         <v>142724</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>157837</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1130,7 @@
         <v>168327</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1122,8 +1140,11 @@
       <c r="C26" s="2">
         <v>145610</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1134,7 +1155,7 @@
         <v>145250</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>145604</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1156,7 +1177,7 @@
         <v>142750</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1164,8 +1185,11 @@
         <v>96</v>
       </c>
       <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1176,7 +1200,7 @@
         <v>142720</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1187,7 +1211,7 @@
         <v>142774</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1197,8 +1221,11 @@
       <c r="C33" s="2">
         <v>142772</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1236,7 @@
         <v>145204</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1247,7 @@
         <v>143242</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>143648</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1242,7 +1269,7 @@
         <v>143238</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1253,7 +1280,7 @@
         <v>143636</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1264,7 +1291,7 @@
         <v>143944</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1275,7 +1302,7 @@
         <v>143656</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1283,8 +1310,11 @@
         <v>107</v>
       </c>
       <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1295,7 +1325,7 @@
         <v>142752</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1306,7 +1336,7 @@
         <v>143942</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1317,7 +1347,7 @@
         <v>142728</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1328,16 +1358,18 @@
         <v>143916</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>143634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1348,7 +1380,7 @@
         <v>156605</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1356,8 +1388,11 @@
         <v>114</v>
       </c>
       <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1367,8 +1402,11 @@
       <c r="C49" s="2">
         <v>142852</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1376,8 +1414,11 @@
         <v>116</v>
       </c>
       <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1388,7 +1429,7 @@
         <v>142744</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1399,7 +1440,7 @@
         <v>142718</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1410,7 +1451,7 @@
         <v>142756</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1421,7 +1462,7 @@
         <v>145616</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1431,8 +1472,11 @@
       <c r="C55" s="2">
         <v>143248</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1442,8 +1486,11 @@
       <c r="C56" s="2">
         <v>145234</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>137</v>
       </c>
@@ -1454,7 +1501,7 @@
         <v>143222</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>55</v>
       </c>
@@ -1465,7 +1512,7 @@
         <v>143666</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1523,7 @@
         <v>157787</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>157871</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>58</v>
       </c>
@@ -1498,7 +1545,7 @@
         <v>157785</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
@@ -1509,7 +1556,7 @@
         <v>145202</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>60</v>
       </c>
@@ -1520,7 +1567,7 @@
         <v>157861</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
@@ -1531,7 +1578,7 @@
         <v>157935</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
@@ -1542,7 +1589,7 @@
         <v>157845</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>63</v>
       </c>
@@ -1553,7 +1600,7 @@
         <v>145506</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -1564,7 +1611,7 @@
         <v>143668</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
@@ -1575,7 +1622,7 @@
         <v>157747</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -1586,88 +1633,96 @@
         <v>166459</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="2">
+        <v>142738</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
     </row>
   </sheetData>

--- a/arcpy/qaqc/Historic_PurpleAir/PA IDs and indexes.xlsx
+++ b/arcpy/qaqc/Historic_PurpleAir/PA IDs and indexes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tande\Documents\GitHub\QualityAirQualityCities\arcpy\qaqc\Historic_PurpleAir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4FF4C3-CCE2-4614-BDB1-CA02CA3414AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CC4166-4456-49AF-B2BD-9F0C78196B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AFF7FDF3-5C8E-44D7-B59C-1262BA8F9470}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF7FDF3-5C8E-44D7-B59C-1262BA8F9470}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B394A7EB-A1AA-4267-B057-34339BEFEB84}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
